--- a/frontend/outputs/LP5042245A_invoice.xlsx
+++ b/frontend/outputs/LP5042245A_invoice.xlsx
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C12" s="23" t="n"/>
       <c r="D12" s="23" t="n">
-        <v>60.08611345195202</v>
+        <v>59.9904852305656</v>
       </c>
       <c r="E12" s="23" t="n"/>
       <c r="F12" s="23" t="n"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C13" s="23" t="n"/>
       <c r="D13" s="23" t="n">
-        <v>149.9435750625739</v>
+        <v>150.0328396117421</v>
       </c>
       <c r="E13" s="23" t="n"/>
       <c r="F13" s="23" t="n"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14" s="23" t="n"/>
       <c r="D14" s="23" t="n">
-        <v>69.91297317562234</v>
+        <v>70.03763731206107</v>
       </c>
       <c r="E14" s="23" t="n"/>
       <c r="F14" s="23" t="n"/>

--- a/frontend/outputs/LP5042245A_invoice.xlsx
+++ b/frontend/outputs/LP5042245A_invoice.xlsx
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C12" s="23" t="n"/>
       <c r="D12" s="23" t="n">
-        <v>59.9904852305656</v>
+        <v>60.07269438757775</v>
       </c>
       <c r="E12" s="23" t="n"/>
       <c r="F12" s="23" t="n"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C13" s="23" t="n"/>
       <c r="D13" s="23" t="n">
-        <v>150.0328396117421</v>
+        <v>150.0467873968699</v>
       </c>
       <c r="E13" s="23" t="n"/>
       <c r="F13" s="23" t="n"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14" s="23" t="n"/>
       <c r="D14" s="23" t="n">
-        <v>70.03763731206107</v>
+        <v>70.04155854436954</v>
       </c>
       <c r="E14" s="23" t="n"/>
       <c r="F14" s="23" t="n"/>

--- a/frontend/outputs/LP5042245A_invoice.xlsx
+++ b/frontend/outputs/LP5042245A_invoice.xlsx
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C12" s="23" t="n"/>
       <c r="D12" s="23" t="n">
-        <v>60.07269438757775</v>
+        <v>60.06952032625227</v>
       </c>
       <c r="E12" s="23" t="n"/>
       <c r="F12" s="23" t="n"/>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C13" s="23" t="n"/>
       <c r="D13" s="23" t="n">
-        <v>150.0467873968699</v>
+        <v>149.9098205091526</v>
       </c>
       <c r="E13" s="23" t="n"/>
       <c r="F13" s="23" t="n"/>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C14" s="23" t="n"/>
       <c r="D14" s="23" t="n">
-        <v>70.04155854436954</v>
+        <v>69.92761606073117</v>
       </c>
       <c r="E14" s="23" t="n"/>
       <c r="F14" s="23" t="n"/>
